--- a/Input/Metricas.xlsx
+++ b/Input/Metricas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Jimenez\Documents\UiPath\ExcelAutomationLearning\PruebaAEliminar\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FDA038-B32C-44D9-854C-7A24B34A7D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5092A-EFEA-40F8-B85A-48AB0450A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="10140" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="10140" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -930,8 +930,8 @@
   <dimension ref="A1:J1540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1551" sqref="D1551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23926,7 +23926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="4">
         <v>1006875311</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="4">
         <v>1006875311</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1056" s="4">
         <v>382003</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1057" s="4">
         <v>382003</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>67.502318879397293</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1058" s="4">
         <v>382003</v>
       </c>
@@ -34624,7 +34624,7 @@
   <autoFilter ref="A1:J1540" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="382003"/>
+        <filter val="1006875311"/>
       </filters>
     </filterColumn>
   </autoFilter>
